--- a/Lab/paragon/IP_Address_Allocation.xlsx
+++ b/Lab/paragon/IP_Address_Allocation.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://junipernetworks-my.sharepoint.com/personal/irzan_juniper_net/Documents/git/vmm-v3-script/Lab/paragon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3141D82-C0E6-E246-82F4-4AF8F2A3889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{C3141D82-C0E6-E246-82F4-4AF8F2A3889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDEB1198-59EE-F342-9F0E-B02E79D2AE59}"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="4780" windowWidth="27640" windowHeight="16940" xr2:uid="{4FFD65F0-C088-D94A-B4B6-F9803622558C}"/>
+    <workbookView xWindow="1300" yWindow="4280" windowWidth="27640" windowHeight="16940" xr2:uid="{4FFD65F0-C088-D94A-B4B6-F9803622558C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>router</t>
   </si>
@@ -141,6 +142,78 @@
   </si>
   <si>
     <t>ge-0/0/6</t>
+  </si>
+  <si>
+    <t>lo0</t>
+  </si>
+  <si>
+    <t>10.1.255.1/32</t>
+  </si>
+  <si>
+    <t>ge-0/0/0</t>
+  </si>
+  <si>
+    <t>10.1.11.1/24</t>
+  </si>
+  <si>
+    <t>10.1.0.0/31</t>
+  </si>
+  <si>
+    <t>10.1.255.4/32</t>
+  </si>
+  <si>
+    <t>10.1.255.5/32</t>
+  </si>
+  <si>
+    <t>10.1.0.6/31</t>
+  </si>
+  <si>
+    <t>10.1.0.2/31</t>
+  </si>
+  <si>
+    <t>10.1.0.4/31</t>
+  </si>
+  <si>
+    <t>10.1.0.7/31</t>
+  </si>
+  <si>
+    <t>10.1.0.8/31</t>
+  </si>
+  <si>
+    <t>10.1.0.10/31</t>
+  </si>
+  <si>
+    <t>10.1.0.12/31</t>
+  </si>
+  <si>
+    <t>10.1.0.1/31</t>
+  </si>
+  <si>
+    <t>10.1.0.3/31</t>
+  </si>
+  <si>
+    <t>10.1.255.2/32</t>
+  </si>
+  <si>
+    <t>10.1.0.9/31</t>
+  </si>
+  <si>
+    <t>10.1.0.11/31</t>
+  </si>
+  <si>
+    <t>10.1.255.3/32</t>
+  </si>
+  <si>
+    <t>10.1.0.5/31</t>
+  </si>
+  <si>
+    <t>10.1.0.13/31</t>
+  </si>
+  <si>
+    <t>10.1.12.1/24</t>
+  </si>
+  <si>
+    <t>10.1.13.1/24</t>
   </si>
 </sst>
 </file>
@@ -511,11 +584,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD656AD-88DA-0E48-ABBB-7E3B99498FB1}">
+  <dimension ref="C3:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7C76F-CB77-224D-9CDE-8BDD66B93EEB}">
   <dimension ref="C3:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Lab/paragon/IP_Address_Allocation.xlsx
+++ b/Lab/paragon/IP_Address_Allocation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://junipernetworks-my.sharepoint.com/personal/irzan_juniper_net/Documents/git/vmm-v3-script/Lab/paragon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{C3141D82-C0E6-E246-82F4-4AF8F2A3889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDEB1198-59EE-F342-9F0E-B02E79D2AE59}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{C3141D82-C0E6-E246-82F4-4AF8F2A3889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE87A8EB-47E6-344F-9405-7AF31A136763}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="4280" windowWidth="27640" windowHeight="16940" xr2:uid="{4FFD65F0-C088-D94A-B4B6-F9803622558C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>router</t>
   </si>
@@ -153,18 +153,12 @@
     <t>ge-0/0/0</t>
   </si>
   <si>
-    <t>10.1.11.1/24</t>
-  </si>
-  <si>
     <t>10.1.0.0/31</t>
   </si>
   <si>
     <t>10.1.255.4/32</t>
   </si>
   <si>
-    <t>10.1.255.5/32</t>
-  </si>
-  <si>
     <t>10.1.0.6/31</t>
   </si>
   <si>
@@ -210,10 +204,91 @@
     <t>10.1.0.13/31</t>
   </si>
   <si>
-    <t>10.1.12.1/24</t>
-  </si>
-  <si>
-    <t>10.1.13.1/24</t>
+    <t>pe4</t>
+  </si>
+  <si>
+    <t>10.1.0.14/31</t>
+  </si>
+  <si>
+    <t>10.1.255.11/32</t>
+  </si>
+  <si>
+    <t>10.1.0.16/31</t>
+  </si>
+  <si>
+    <t>10.1.0.17/31</t>
+  </si>
+  <si>
+    <t>10.1.255.12/32</t>
+  </si>
+  <si>
+    <t>10.1.0.18/31</t>
+  </si>
+  <si>
+    <t>10.1.0.20/31</t>
+  </si>
+  <si>
+    <t>10.1.0.22/31</t>
+  </si>
+  <si>
+    <t>10.1.0.24/31</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>10.1.255.15/32</t>
+  </si>
+  <si>
+    <t>10.1.0.23/31</t>
+  </si>
+  <si>
+    <t>172.16.14.5/24</t>
+  </si>
+  <si>
+    <t>10.1.0.25/31</t>
+  </si>
+  <si>
+    <t>10.1.255.13/32</t>
+  </si>
+  <si>
+    <t>10.1.0.26/31</t>
+  </si>
+  <si>
+    <t>10.1.0.19/31</t>
+  </si>
+  <si>
+    <t>10.1.0.21/31</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>10.1.255.14/32</t>
+  </si>
+  <si>
+    <t>10.1.0.27/31</t>
+  </si>
+  <si>
+    <t>10.1.0.28/31</t>
+  </si>
+  <si>
+    <t>10.1.0.29/31</t>
+  </si>
+  <si>
+    <t>10.1.0.30/31</t>
+  </si>
+  <si>
+    <t>10.1.0.31/31</t>
+  </si>
+  <si>
+    <t>10.1.0.15/31</t>
+  </si>
+  <si>
+    <t>172.16.15.1/32</t>
   </si>
 </sst>
 </file>
@@ -229,12 +304,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,8 +330,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD656AD-88DA-0E48-ABBB-7E3B99498FB1}">
-  <dimension ref="C3:E29"/>
+  <dimension ref="C3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,7 +678,7 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -607,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -617,37 +699,67 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -655,39 +767,69 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -695,130 +837,227 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
+      <c r="J33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
